--- a/资产导入测试.xlsx
+++ b/资产导入测试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8460"/>
+    <workbookView windowWidth="21710" windowHeight="10520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t>资产编号</t>
   </si>
@@ -68,6 +68,144 @@
   </si>
   <si>
     <t>显示屏4</t>
+  </si>
+  <si>
+    <t>B0005</t>
+  </si>
+  <si>
+    <t>显示屏5</t>
+  </si>
+  <si>
+    <t>B0006</t>
+  </si>
+  <si>
+    <t>显示屏6</t>
+  </si>
+  <si>
+    <t>B0007</t>
+  </si>
+  <si>
+    <t>显示屏7</t>
+  </si>
+  <si>
+    <t>B0008</t>
+  </si>
+  <si>
+    <t>显示屏8</t>
+  </si>
+  <si>
+    <t>B0009</t>
+  </si>
+  <si>
+    <t>显示屏9</t>
+  </si>
+  <si>
+    <t>B0010</t>
+  </si>
+  <si>
+    <t>内存条1</t>
+  </si>
+  <si>
+    <t>B0011</t>
+  </si>
+  <si>
+    <t>内存条2</t>
+  </si>
+  <si>
+    <t>B0012</t>
+  </si>
+  <si>
+    <t>内存条3</t>
+  </si>
+  <si>
+    <t>B0013</t>
+  </si>
+  <si>
+    <t>内存条4</t>
+  </si>
+  <si>
+    <t>B0014</t>
+  </si>
+  <si>
+    <t>内存条5</t>
+  </si>
+  <si>
+    <t>B0015</t>
+  </si>
+  <si>
+    <t>内存条6</t>
+  </si>
+  <si>
+    <t>B0016</t>
+  </si>
+  <si>
+    <t>内存条7</t>
+  </si>
+  <si>
+    <t>B0017</t>
+  </si>
+  <si>
+    <t>内存条8</t>
+  </si>
+  <si>
+    <t>B0018</t>
+  </si>
+  <si>
+    <t>内存条9</t>
+  </si>
+  <si>
+    <t>B0019</t>
+  </si>
+  <si>
+    <t>内存条10</t>
+  </si>
+  <si>
+    <t>B0020</t>
+  </si>
+  <si>
+    <t>内存条11</t>
+  </si>
+  <si>
+    <t>B0021</t>
+  </si>
+  <si>
+    <t>内存条12</t>
+  </si>
+  <si>
+    <t>B0022</t>
+  </si>
+  <si>
+    <t>内存条13</t>
+  </si>
+  <si>
+    <t>B0023</t>
+  </si>
+  <si>
+    <t>内存条14</t>
+  </si>
+  <si>
+    <t>B0024</t>
+  </si>
+  <si>
+    <t>内存条15</t>
+  </si>
+  <si>
+    <t>B0025</t>
+  </si>
+  <si>
+    <t>内存条16</t>
+  </si>
+  <si>
+    <t>B0026</t>
+  </si>
+  <si>
+    <t>内存条17</t>
+  </si>
+  <si>
+    <t>B0027</t>
+  </si>
+  <si>
+    <t>内存条18</t>
   </si>
 </sst>
 </file>
@@ -998,13 +1136,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1074,6 +1212,328 @@
       </c>
       <c r="D5">
         <v>1234567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>1234566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>1234566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>1234566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>1234566</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>1234569</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>1234569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>1234569</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>1234569</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>1234569</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>1234569</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16">
+        <v>1234569</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17">
+        <v>1234569</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18">
+        <v>1234569</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19">
+        <v>1234569</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20">
+        <v>1234568</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21">
+        <v>1234568</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22">
+        <v>1234568</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23">
+        <v>1234568</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>1234568</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25">
+        <v>1234568</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26">
+        <v>1234568</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27">
+        <v>1234568</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28">
+        <v>1234568</v>
       </c>
     </row>
   </sheetData>
@@ -1092,7 +1552,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1109,7 +1569,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
